--- a/data/trans_camb/P36B14_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P36B14_R-Habitat-trans_camb.xlsx
@@ -522,17 +522,17 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2023/2015</t>
+          <t>2023/2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2023/2015</t>
+          <t>2023/2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2023/2015</t>
+          <t>2023/2016</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,8</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,29</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,73</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,17; 4,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,47; 3,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,16; 1,46</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,76%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,83%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,43%</t>
         </is>
       </c>
     </row>
@@ -625,24 +625,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,95; 5,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,17; 3,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,43; 1,55</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,49</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,92</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,09</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,37; -13,05</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,9; -6,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,16; -10,85</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,44%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,2%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,7%</t>
         </is>
       </c>
     </row>
@@ -721,24 +721,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,49; -14,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,4; -7,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,99; -12,19</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,57</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,83</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,7</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,64; -8,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,97; -11,04</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,55; -11,67</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,6%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,1%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,34%</t>
         </is>
       </c>
     </row>
@@ -817,24 +817,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,29; -10,67</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,49; -13,05</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,56; -13,81</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,4</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,15</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,98</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,28; -2,65</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,8; 5,4</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,26; 0,94</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,97%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,39%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,82%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,71; -3,3</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,9; 6,67</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,72; 1,17</t>
         </is>
       </c>
     </row>
@@ -940,17 +940,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,54</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,15</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,18</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,85; -9,47</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,4; -7,76</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,82; -9,92</t>
         </is>
       </c>
     </row>
@@ -986,17 +986,17 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,13%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,71%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,18%</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,8; -11,51</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,18; -8,98</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,07; -11,66</t>
         </is>
       </c>
     </row>
@@ -1036,17 +1036,17 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,0</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,66</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,19</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,2; -10,43</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,7; -7,31</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,76; -9,29</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1082,17 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,4%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,14%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,07%</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,95; -12,5</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,39; -8,31</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,78; -10,87</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P36B14_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P36B14_R-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-6,8</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-5,29</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-5,73</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-18,17; 4,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-13,47; 3,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-12,16; 1,46</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-7,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-5,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-6,43%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-19,95; 5,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-14,17; 3,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-13,43; 1,55</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-17,49</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-10,92</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-14,09</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-23,37; -13,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-14,9; -6,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-17,16; -10,85</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-19,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-12,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-15,7%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-25,49; -14,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-16,4; -7,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-18,99; -12,19</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-14,57</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-14,83</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-14,7</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-18,64; -8,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-17,97; -11,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-17,55; -11,67</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-17,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-17,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-17,34%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-22,29; -10,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-20,49; -13,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-20,56; -13,81</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-7,4</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,15</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-3,98</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-12,28; -2,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 5,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,26; 0,94</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-8,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-1,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-4,82%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-14,71; -3,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-6,9; 6,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-8,72; 1,17</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -940,17 +940,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-13,54</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-11,15</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-12,18</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-17,85; -9,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-14,4; -7,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-14,82; -9,92</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -986,17 +986,17 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-16,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-12,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-14,18%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-20,8; -11,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-16,18; -8,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-17,07; -11,66</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1036,17 +1036,17 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-13,0</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-9,66</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-11,19</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-15,2; -10,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-11,7; -7,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-12,76; -9,29</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1082,17 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-15,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-11,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-13,07%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-17,95; -12,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-13,39; -8,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-14,78; -10,87</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P36B14_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P36B14_R-Habitat-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,7 +642,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -738,7 +738,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -834,7 +834,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -930,7 +930,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1024,116 +1024,19 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
